--- a/LaTech/BIOM_510_Bioinstrumentation/HW/5/Bode Plot.xlsx
+++ b/LaTech/BIOM_510_Bioinstrumentation/HW/5/Bode Plot.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunzi\Documents\Study\LaTech\BIOM_510_Bioinstrumentation\HW\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BCC786-FD44-499E-A22A-F1DD77D59866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44332960-9BCF-4E8A-9DD2-5A95F9310BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{0A82C310-CB32-46F5-8457-DBF612197A18}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="16350" windowHeight="15585" xr2:uid="{0A82C310-CB32-46F5-8457-DBF612197A18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -127,6 +130,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -138,85 +142,493 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$78</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>14.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>17.279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100000</c:v>
+                  <c:v>20.735999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10000000</c:v>
+                  <c:v>24.883199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.859839999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.831807999999988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.998169599999983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.597803519999978</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.917364223999968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.300837068799964</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.16100448255996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.99320537907195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>128.39184645488635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>154.07021574586361</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>184.88425889503631</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>221.86111067404357</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>266.23333280885225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>319.47999937062269</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>383.37599924474722</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>460.05119909369665</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>552.06143891243596</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>662.47372669492313</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>794.96847203390769</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>953.9621664406892</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1144.7545997288271</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1373.7055196745926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1648.4466236095111</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1978.1359483314131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2373.7631379976956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2848.5157655972348</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3418.2189187166819</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4101.8627024600182</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4922.2352429520215</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5906.6822915424254</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7088.0187498509104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8505.6224998210928</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10206.746999785311</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12248.096399742373</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14697.715679690848</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17637.258815629015</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21164.710578754817</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25397.652694505781</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30477.183233406937</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36572.619880088321</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43887.143856105984</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52664.572627327179</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63197.487152792615</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75836.984583351135</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>91004.381500021365</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>109205.25780002563</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>131046.30936003075</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>157255.57123203689</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>188706.68547844427</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>226448.02257413312</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>271737.62708895974</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>326085.15250675165</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>391302.18300810194</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>469562.61960972234</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>563475.14353166684</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>676170.1722380002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>811404.20668560022</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>973685.04802272026</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1168422.0576272642</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1402106.4691527169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1682527.7629832602</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2019033.3155799122</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2422839.9786958946</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2907407.9744350733</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3488889.5693220878</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4186667.4831865053</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5024000.9798238063</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6028801.1757885674</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7234561.4109462807</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8681473.6931355372</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10417768.431762645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$8</c:f>
+              <c:f>Sheet1!$C$2:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>-80.000004255649543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-60.0004255443137</c:v>
+                  <c:v>-78.41638120718153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-40.042349363659994</c:v>
+                  <c:v>-76.832758982605256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-22.966436964955392</c:v>
+                  <c:v>-75.249137944431595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-19.956786262173576</c:v>
+                  <c:v>-73.665518614674511</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-19.956571281084209</c:v>
+                  <c:v>-72.081901745030763</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-19.99913996877622</c:v>
+                  <c:v>-70.498288417936664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-68.914680192085868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-67.331079311967059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-65.747489009581301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-64.163913938880114</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-62.580360801284272</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-60.996839246280985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-59.413363167973429</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-57.829952571468333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-56.246636259139819</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-54.66345569608356</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-53.080470570638816</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-51.497766789664972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-49.91546796714411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-48.333751916856791</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-46.752874296527651</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-45.173202437815519</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-43.595263612663402</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-42.019813613070113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-40.447933610945341</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-38.881165767266673</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-37.321700663646276</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-35.772631450184448</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-34.238288631345434</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-32.7246616680426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-31.239892182580235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-29.794778726959343</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-28.403155765474754</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-27.081903668712847</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-25.850253347770771</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-24.728071113395128</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-23.733084384345041</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-22.877570816746232</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-22.165615177092594</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-21.59211654679314</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-21.144022281290098</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-20.803200299829975</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-20.549736370243437</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-20.364602758587282</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-20.231248466094222</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-20.136197359354338</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-20.068981432430476</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-20.021738407023054</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-19.988704388825273</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-19.965728588429425</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-19.949863713510197</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-19.939043991970468</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-19.931843317556879</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-19.927299108506777</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-19.924786493305206</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-19.923928504062999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-19.924529081374839</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-19.926516247990861</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-19.929883585019404</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-19.934621720989753</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-19.940641589023663</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-19.947708361981761</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-19.95541979973428</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-19.963255952741331</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-19.970689978867618</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-19.977307626975531</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-19.982877264570352</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-19.987349428011107</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-19.990807232579957</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-19.993403669983621</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-19.995310873267343</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-19.996689296672841</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-19.997673936291317</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-19.998371415262401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-19.99886255336294</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-19.999206948733878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -244,6 +656,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="10000000"/>
           <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -262,10 +675,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -286,10 +748,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -324,6 +783,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Magnitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -348,10 +856,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -397,7 +902,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -423,10 +932,21 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2023941382327209"/>
+          <c:y val="7.938711402824869E-2"/>
+          <c:w val="0.71604330708661412"/>
+          <c:h val="0.69930069533842221"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -434,85 +954,491 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$78</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>14.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>17.279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100000</c:v>
+                  <c:v>20.735999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>10000000</c:v>
+                  <c:v>24.883199999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.859839999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.831807999999988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.998169599999983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.597803519999978</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.917364223999968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.300837068799964</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.16100448255996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106.99320537907195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>128.39184645488635</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>154.07021574586361</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>184.88425889503631</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>221.86111067404357</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>266.23333280885225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>319.47999937062269</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>383.37599924474722</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>460.05119909369665</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>552.06143891243596</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>662.47372669492313</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>794.96847203390769</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>953.9621664406892</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1144.7545997288271</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1373.7055196745926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1648.4466236095111</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1978.1359483314131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2373.7631379976956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2848.5157655972348</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3418.2189187166819</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4101.8627024600182</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4922.2352429520215</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5906.6822915424254</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7088.0187498509104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8505.6224998210928</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10206.746999785311</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12248.096399742373</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14697.715679690848</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17637.258815629015</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21164.710578754817</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25397.652694505781</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30477.183233406937</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36572.619880088321</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43887.143856105984</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52664.572627327179</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63197.487152792615</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75836.984583351135</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>91004.381500021365</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>109205.25780002563</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>131046.30936003075</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>157255.57123203689</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>188706.68547844427</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>226448.02257413312</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>271737.62708895974</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>326085.15250675165</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>391302.18300810194</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>469562.61960972234</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>563475.14353166684</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>676170.1722380002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>811404.20668560022</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>973685.04802272026</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1168422.0576272642</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1402106.4691527169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1682527.7629832602</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2019033.3155799122</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2422839.9786958946</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2907407.9744350733</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3488889.5693220878</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4186667.4831865053</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5024000.9798238063</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6028801.1757885674</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7234561.4109462807</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8681473.6931355372</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10417768.431762645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>Sheet1!$D$2:$D$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>89.943277196807657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.432790307347645</c:v>
+                  <c:v>89.931932645950695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84.346135281796819</c:v>
+                  <c:v>89.918319192043271</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.285022631126395</c:v>
+                  <c:v>89.901983059659315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7105931374996457</c:v>
+                  <c:v>89.882379722061501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28791606655708729</c:v>
+                  <c:v>89.858855753686314</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6734111805461758E-4</c:v>
+                  <c:v>89.830627055126413</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.796752726565174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.756103721870176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89.707325243824016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.648791636231053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>89.578552285252002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.494266754232086</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89.393127037451436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.27176442348113</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.126138005598094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.951401368140367</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88.741743428251453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.490198857921698</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.188423025911959</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.826426125698489</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.392261355562454</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86.87166315533976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86.247634387920584</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.499987350280961</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84.604854868205095</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83.534208076376828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.255452274697305</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80.731229074347084</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>78.919640776932781</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76.775237688541438</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74.251262973420964</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.303786607520777</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67.898356394790994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64.019414042406211</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.681665965178738</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54.940761894679795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.898660049192955</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44.698665056981909</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.50815483688627</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.492973531182564</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.792376604719049</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25.503071299968937</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.67561176138193</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.320633024336921</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.419806881544892</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.937082450704061</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.827800711271848</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.0450339465032528</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.5434701119300112</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.2814847363737307</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.2220216133390371</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.3327612314543069</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.5859053636114528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.9577875605846673</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4284375760596513</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9811750817506812</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6022728449194565</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2806993509622882</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0079139293890367</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.7776391133261199</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58549221030781784</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.42837172322484829</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.3036213252184834</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.20820507814285835</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.13824539834495631</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.9123946361590323E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.6010744462608085E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.447180397108876E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0869193912159384E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.247676379233814E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.3901925022168552E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.3477536236410548E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.545415724208135E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4850735791495865E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.6432030687500969E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0217477974943221E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,7 +1446,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E6E-4EDC-AB82-C9C31BEAFB84}"/>
+              <c16:uniqueId val="{00000001-FF8A-4538-83D6-116DFE0BE34F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -532,43 +1458,68 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="26490143"/>
-        <c:axId val="26492543"/>
+        <c:axId val="651186264"/>
+        <c:axId val="651186656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="26490143"/>
+        <c:axId val="651186264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="10000000"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49208195078653477"/>
+              <c:y val="0.88218909216180441"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -579,12 +1530,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -594,43 +1542,66 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26492543"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="651186656"/>
+        <c:crossesAt val="-90"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26492543"/>
+        <c:axId val="651186656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Phase (degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.6643135125350713E-2"/>
+              <c:y val="0.19115652210140399"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -641,12 +1612,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -656,36 +1624,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26490143"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="651186264"/>
+        <c:crossesAt val="-15"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="45"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -706,46 +1659,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1301,536 +2214,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>287790</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22451</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>192541</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>29778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>98651</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>105978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1857,16 +2254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498231</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>186469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71072</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72169</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1892,6 +2289,1002 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.1</v>
+          </cell>
+          <cell r="C2">
+            <v>0.2623756552633783</v>
+          </cell>
+          <cell r="D2">
+            <v>-7.0122485347935859E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.12</v>
+          </cell>
+          <cell r="C3">
+            <v>0.2623210025863198</v>
+          </cell>
+          <cell r="D3">
+            <v>-8.4141571956447989E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.14399999999999999</v>
+          </cell>
+          <cell r="C4">
+            <v>0.26224236597317868</v>
+          </cell>
+          <cell r="D4">
+            <v>-0.10096054304519639</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.17279999999999998</v>
+          </cell>
+          <cell r="C5">
+            <v>0.26212926017426597</v>
+          </cell>
+          <cell r="D5">
+            <v>-0.12113652127239102</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.20735999999999996</v>
+          </cell>
+          <cell r="C6">
+            <v>0.26196665866997898</v>
+          </cell>
+          <cell r="D6">
+            <v>-0.14533598909179912</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.24883199999999994</v>
+          </cell>
+          <cell r="C7">
+            <v>0.26173307223345571</v>
+          </cell>
+          <cell r="D7">
+            <v>-0.17435517701669204</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.29859839999999993</v>
+          </cell>
+          <cell r="C8">
+            <v>0.2613978627893227</v>
+          </cell>
+          <cell r="D8">
+            <v>-0.2091434779771088</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.35831807999999993</v>
+          </cell>
+          <cell r="C9">
+            <v>0.260917539576143</v>
+          </cell>
+          <cell r="D9">
+            <v>-0.25082976908125765</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0.42998169599999991</v>
+          </cell>
+          <cell r="C10">
+            <v>0.26023075678818064</v>
+          </cell>
+          <cell r="D10">
+            <v>-0.3007510310465642</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0.51597803519999985</v>
+          </cell>
+          <cell r="C11">
+            <v>0.25925176988588466</v>
+          </cell>
+          <cell r="D11">
+            <v>-0.36048180934609031</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0.61917364223999982</v>
+          </cell>
+          <cell r="C12">
+            <v>0.25786230354688866</v>
+          </cell>
+          <cell r="D12">
+            <v>-0.43186171185568961</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0.74300837068799974</v>
+          </cell>
+          <cell r="C13">
+            <v>0.25590230234477929</v>
+          </cell>
+          <cell r="D13">
+            <v>-0.51701618429920482</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0.89161004482559969</v>
+          </cell>
+          <cell r="C14">
+            <v>0.25316112653802997</v>
+          </cell>
+          <cell r="D14">
+            <v>-0.61836338427051873</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>1.0699320537907195</v>
+          </cell>
+          <cell r="C15">
+            <v>0.24937269725749545</v>
+          </cell>
+          <cell r="D15">
+            <v>-0.73859787764636087</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>1.2839184645488635</v>
+          </cell>
+          <cell r="C16">
+            <v>0.24422092383976657</v>
+          </cell>
+          <cell r="D16">
+            <v>-0.88064223408760378</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>1.5407021574586361</v>
+          </cell>
+          <cell r="C17">
+            <v>0.23736460022544664</v>
+          </cell>
+          <cell r="D17">
+            <v>-1.0475644922902472</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>1.8488425889503632</v>
+          </cell>
+          <cell r="C18">
+            <v>0.22849111547829601</v>
+          </cell>
+          <cell r="D18">
+            <v>-1.2424782504442606</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>2.2186111067404357</v>
+          </cell>
+          <cell r="C19">
+            <v>0.21740104706926139</v>
+          </cell>
+          <cell r="D19">
+            <v>-1.4684749287980972</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>2.6623333280885229</v>
+          </cell>
+          <cell r="C20">
+            <v>0.20410753872694018</v>
+          </cell>
+          <cell r="D20">
+            <v>-1.7286741413008939</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>3.1947999937062272</v>
+          </cell>
+          <cell r="C21">
+            <v>0.18891114371553566</v>
+          </cell>
+          <cell r="D21">
+            <v>-2.0264888047478746</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>3.8337599924474723</v>
+          </cell>
+          <cell r="C22">
+            <v>0.17240249870081351</v>
+          </cell>
+          <cell r="D22">
+            <v>-2.3661539150718545</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>4.6005119909369663</v>
+          </cell>
+          <cell r="C23">
+            <v>0.15537152272009222</v>
+          </cell>
+          <cell r="D23">
+            <v>-2.7534678918441626</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>5.5206143891243595</v>
+          </cell>
+          <cell r="C24">
+            <v>0.13865313505417762</v>
+          </cell>
+          <cell r="D24">
+            <v>-3.1966096742521435</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>6.6247372669492313</v>
+          </cell>
+          <cell r="C25">
+            <v>0.12297450641485037</v>
+          </cell>
+          <cell r="D25">
+            <v>-3.7068953893119487</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>7.9496847203390768</v>
+          </cell>
+          <cell r="C26">
+            <v>0.10885839445266142</v>
+          </cell>
+          <cell r="D26">
+            <v>-4.2994183980744136</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>9.5396216644068925</v>
+          </cell>
+          <cell r="C27">
+            <v>9.6596838760691403E-2</v>
+          </cell>
+          <cell r="D27">
+            <v>-4.9935930907642199</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>11.447545997288271</v>
+          </cell>
+          <cell r="C28">
+            <v>8.6275977524307032E-2</v>
+          </cell>
+          <cell r="D28">
+            <v>-5.8136275293508053</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>13.737055196745926</v>
+          </cell>
+          <cell r="C29">
+            <v>7.7823637843934992E-2</v>
+          </cell>
+          <cell r="D29">
+            <v>-6.788889422494611</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>16.484466236095109</v>
+          </cell>
+          <cell r="C30">
+            <v>7.1059447414159316E-2</v>
+          </cell>
+          <cell r="D30">
+            <v>-7.9540643531730169</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>19.78135948331413</v>
+          </cell>
+          <cell r="C31">
+            <v>6.5738503808701471E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>-9.348985743576451</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>23.737631379976957</v>
+          </cell>
+          <cell r="C32">
+            <v>6.1586373835122811E-2</v>
+          </cell>
+          <cell r="D32">
+            <v>-11.018026728253014</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>28.485157655972348</v>
+          </cell>
+          <cell r="C33">
+            <v>5.8325129065487563E-2</v>
+          </cell>
+          <cell r="D33">
+            <v>-13.008899915302559</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>34.182189187166813</v>
+          </cell>
+          <cell r="C34">
+            <v>5.5690346370668657E-2</v>
+          </cell>
+          <cell r="D34">
+            <v>-15.37054258412337</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>41.018627024600171</v>
+          </cell>
+          <cell r="C35">
+            <v>5.343988926130952E-2</v>
+          </cell>
+          <cell r="D35">
+            <v>-18.149519074633005</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>49.222352429520207</v>
+          </cell>
+          <cell r="C36">
+            <v>5.1357017267634732E-2</v>
+          </cell>
+          <cell r="D36">
+            <v>-21.38422653934072</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>59.066822915424247</v>
+          </cell>
+          <cell r="C37">
+            <v>4.9251899053332271E-2</v>
+          </cell>
+          <cell r="D37">
+            <v>-25.096405186281114</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>70.880187498509088</v>
+          </cell>
+          <cell r="C38">
+            <v>4.6965938434218382E-2</v>
+          </cell>
+          <cell r="D38">
+            <v>-29.280322411741885</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>85.056224998210908</v>
+          </cell>
+          <cell r="C39">
+            <v>4.4381755129066953E-2</v>
+          </cell>
+          <cell r="D39">
+            <v>-33.891685299280233</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>102.06746999785308</v>
+          </cell>
+          <cell r="C40">
+            <v>4.1437760757191452E-2</v>
+          </cell>
+          <cell r="D40">
+            <v>-38.840429227733637</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>122.48096399742369</v>
+          </cell>
+          <cell r="C41">
+            <v>3.8140919444212586E-2</v>
+          </cell>
+          <cell r="D41">
+            <v>-43.992576575796058</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>146.97715679690842</v>
+          </cell>
+          <cell r="C42">
+            <v>3.4568024490047429E-2</v>
+          </cell>
+          <cell r="D42">
+            <v>-49.184352445415648</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>176.37258815629011</v>
+          </cell>
+          <cell r="C43">
+            <v>3.0849167046576493E-2</v>
+          </cell>
+          <cell r="D43">
+            <v>-54.246306148774586</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>211.64710578754813</v>
+          </cell>
+          <cell r="C44">
+            <v>2.7136816591681642E-2</v>
+          </cell>
+          <cell r="D44">
+            <v>-59.029487990849361</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>253.97652694505774</v>
+          </cell>
+          <cell r="C45">
+            <v>2.3572627292898576E-2</v>
+          </cell>
+          <cell r="D45">
+            <v>-63.424447743888145</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>304.7718323340693</v>
+          </cell>
+          <cell r="C46">
+            <v>2.0264233385336131E-2</v>
+          </cell>
+          <cell r="D46">
+            <v>-67.368113007240979</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>365.72619880088314</v>
+          </cell>
+          <cell r="C47">
+            <v>1.7276903198057424E-2</v>
+          </cell>
+          <cell r="D47">
+            <v>-70.83973059896779</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>438.87143856105973</v>
+          </cell>
+          <cell r="C48">
+            <v>1.4637194057421711E-2</v>
+          </cell>
+          <cell r="D48">
+            <v>-73.850666852975422</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>526.64572627327163</v>
+          </cell>
+          <cell r="C49">
+            <v>1.2342581848671845E-2</v>
+          </cell>
+          <cell r="D49">
+            <v>-76.432909475322035</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>631.97487152792598</v>
+          </cell>
+          <cell r="C50">
+            <v>1.0371986054995263E-2</v>
+          </cell>
+          <cell r="D50">
+            <v>-78.629248798229497</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>758.36984583351114</v>
+          </cell>
+          <cell r="C51">
+            <v>8.6944872765598574E-3</v>
+          </cell>
+          <cell r="D51">
+            <v>-80.486188802621371</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>910.04381500021339</v>
+          </cell>
+          <cell r="C52">
+            <v>7.2754747598230887E-3</v>
+          </cell>
+          <cell r="D52">
+            <v>-82.049453386350947</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>1092.0525780002561</v>
+          </cell>
+          <cell r="C53">
+            <v>6.0804850492168052E-3</v>
+          </cell>
+          <cell r="D53">
+            <v>-83.36148685804784</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>1310.4630936003073</v>
+          </cell>
+          <cell r="C54">
+            <v>5.0773268810920084E-3</v>
+          </cell>
+          <cell r="D54">
+            <v>-84.46030374294709</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>1572.5557123203687</v>
+          </cell>
+          <cell r="C55">
+            <v>4.2370721797691966E-3</v>
+          </cell>
+          <cell r="D55">
+            <v>-85.379168719877512</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>1887.0668547844423</v>
+          </cell>
+          <cell r="C56">
+            <v>3.5343589427742541E-3</v>
+          </cell>
+          <cell r="D56">
+            <v>-86.146743248854293</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>2264.4802257413307</v>
+          </cell>
+          <cell r="C57">
+            <v>2.947309705811061E-3</v>
+          </cell>
+          <cell r="D57">
+            <v>-86.787465889631605</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>2717.376270889597</v>
+          </cell>
+          <cell r="C58">
+            <v>2.4572570176123187E-3</v>
+          </cell>
+          <cell r="D58">
+            <v>-87.322026600529398</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>3260.8515250675164</v>
+          </cell>
+          <cell r="C59">
+            <v>2.0483895469092586E-3</v>
+          </cell>
+          <cell r="D59">
+            <v>-87.767856376811721</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>3913.0218300810193</v>
+          </cell>
+          <cell r="C60">
+            <v>1.7073824601035407E-3</v>
+          </cell>
+          <cell r="D60">
+            <v>-88.139591272548316</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>4695.6261960972233</v>
+          </cell>
+          <cell r="C61">
+            <v>1.4230452234415345E-3</v>
+          </cell>
+          <cell r="D61">
+            <v>-88.449492045266737</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>5634.751435316668</v>
+          </cell>
+          <cell r="C62">
+            <v>1.1860021539225551E-3</v>
+          </cell>
+          <cell r="D62">
+            <v>-88.707813160676551</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>6761.7017223800012</v>
+          </cell>
+          <cell r="C63">
+            <v>9.8841103799052242E-4</v>
+          </cell>
+          <cell r="D63">
+            <v>-88.923121557991607</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>8114.0420668560009</v>
+          </cell>
+          <cell r="C64">
+            <v>8.2371980297994295E-4</v>
+          </cell>
+          <cell r="D64">
+            <v>-89.102568841846164</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>9736.8504802272</v>
+          </cell>
+          <cell r="C65">
+            <v>6.8645859974396752E-4</v>
+          </cell>
+          <cell r="D65">
+            <v>-89.252121916784617</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>11684.220576272639</v>
+          </cell>
+          <cell r="C66">
+            <v>5.7206355131288699E-4</v>
+          </cell>
+          <cell r="D66">
+            <v>-89.37675739234912</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>14021.064691527166</v>
+          </cell>
+          <cell r="C67">
+            <v>4.7672814413514441E-4</v>
+          </cell>
+          <cell r="D67">
+            <v>-89.480624868499547</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>16825.277629832599</v>
+          </cell>
+          <cell r="C68">
+            <v>3.9727838309628721E-4</v>
+          </cell>
+          <cell r="D68">
+            <v>-89.567183749198989</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>20190.333155799119</v>
+          </cell>
+          <cell r="C69">
+            <v>3.3106817214561369E-4</v>
+          </cell>
+          <cell r="D69">
+            <v>-89.639317683759245</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>24228.39978695894</v>
+          </cell>
+          <cell r="C70">
+            <v>2.7589179447462113E-4</v>
+          </cell>
+          <cell r="D70">
+            <v>-89.699430183643457</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>29074.079744350729</v>
+          </cell>
+          <cell r="C71">
+            <v>2.2991078419503465E-4</v>
+          </cell>
+          <cell r="D71">
+            <v>-89.749524447304566</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>34888.895693220875</v>
+          </cell>
+          <cell r="C72">
+            <v>1.9159287310030706E-4</v>
+          </cell>
+          <cell r="D72">
+            <v>-89.791269964340785</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>41866.67483186505</v>
+          </cell>
+          <cell r="C73">
+            <v>1.5966104757312422E-4</v>
+          </cell>
+          <cell r="D73">
+            <v>-89.826058067265791</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>50240.009798238061</v>
+          </cell>
+          <cell r="C74">
+            <v>1.330510581576951E-4</v>
+          </cell>
+          <cell r="D74">
+            <v>-89.855048252610089</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>60288.011757885673</v>
+          </cell>
+          <cell r="C75">
+            <v>1.108759889628708E-4</v>
+          </cell>
+          <cell r="D75">
+            <v>-89.879206798020846</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>72345.614109462811</v>
+          </cell>
+          <cell r="C76">
+            <v>9.2396719485876247E-5</v>
+          </cell>
+          <cell r="D76">
+            <v>-89.8993389525438</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>86814.736931355365</v>
+          </cell>
+          <cell r="C77">
+            <v>7.6997302127654514E-5</v>
+          </cell>
+          <cell r="D77">
+            <v>-89.916115767277802</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>104177.68431762644</v>
+          </cell>
+          <cell r="C78">
+            <v>6.4164439209079971E-5</v>
+          </cell>
+          <cell r="D78">
+            <v>-89.930096457390832</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>125013.22118115172</v>
+          </cell>
+          <cell r="C79">
+            <v>5.347037802688684E-5</v>
+          </cell>
+          <cell r="D79">
+            <v>-89.94174703894798</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>150015.86541738207</v>
+          </cell>
+          <cell r="C80">
+            <v>4.4558655311368201E-5</v>
+          </cell>
+          <cell r="D80">
+            <v>-89.951455860652402</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>180019.03850085847</v>
+          </cell>
+          <cell r="C81">
+            <v>3.713221678472349E-5</v>
+          </cell>
+          <cell r="D81">
+            <v>-89.95954654757054</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>216022.84620103016</v>
+          </cell>
+          <cell r="C82">
+            <v>3.0943516316697315E-5</v>
+          </cell>
+          <cell r="D82">
+            <v>-89.966288787921556</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>259227.41544123617</v>
+          </cell>
+          <cell r="C83">
+            <v>2.578626494529649E-5</v>
+          </cell>
+          <cell r="D83">
+            <v>-89.971907322272273</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>311072.89852948341</v>
+          </cell>
+          <cell r="C84">
+            <v>2.1488554901201294E-5</v>
+          </cell>
+          <cell r="D84">
+            <v>-89.976589434650691</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>373287.47823538008</v>
+          </cell>
+          <cell r="C85">
+            <v>1.7907129535793306E-5</v>
+          </cell>
+          <cell r="D85">
+            <v>-89.980491195208785</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>447944.97388245608</v>
+          </cell>
+          <cell r="C86">
+            <v>1.4922608207755373E-5</v>
+          </cell>
+          <cell r="D86">
+            <v>-89.983742662481006</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>537533.96865894727</v>
+          </cell>
+          <cell r="C87">
+            <v>1.243550699098883E-5</v>
+          </cell>
+          <cell r="D87">
+            <v>-89.986452218622517</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>645040.76239073672</v>
+          </cell>
+          <cell r="C88">
+            <v>1.0362922579986462E-5</v>
+          </cell>
+          <cell r="D88">
+            <v>-89.988710182120798</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>774048.91486888402</v>
+          </cell>
+          <cell r="C89">
+            <v>8.6357688672895135E-6</v>
+          </cell>
+          <cell r="D89">
+            <v>-89.990591818396595</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>928858.69784266083</v>
+          </cell>
+          <cell r="C90">
+            <v>7.1964740853767505E-6</v>
+          </cell>
+          <cell r="D90">
+            <v>-89.992159848642174</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2189,22 +3582,406 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Sheets">
+    <a:dk1>
+      <a:srgbClr val="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="000000"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4285F4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EA4335"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="FBBC04"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="34A853"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="FF6D01"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="46BDC6"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="1155CC"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="1155CC"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Sheets">
+    <a:majorFont>
+      <a:latin typeface="Arial"/>
+      <a:ea typeface="Arial"/>
+      <a:cs typeface="Arial"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Arial"/>
+      <a:ea typeface="Arial"/>
+      <a:cs typeface="Arial"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Sheets">
+    <a:dk1>
+      <a:srgbClr val="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="000000"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4285F4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EA4335"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="FBBC04"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="34A853"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="FF6D01"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="46BDC6"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="1155CC"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="1155CC"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Sheets">
+    <a:majorFont>
+      <a:latin typeface="Arial"/>
+      <a:ea typeface="Arial"/>
+      <a:cs typeface="Arial"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Arial"/>
+      <a:ea typeface="Arial"/>
+      <a:cs typeface="Arial"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383CBB16-8A7F-454B-A40C-7BD864CDB9E3}">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2228,21 +4005,22 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>100</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2*1.2</f>
+        <v>12</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B8" si="0">(A3*$I$2*SQRT((A3*$I$5)^2+$I$4^2))/(SQRT((1-A3^2*$I$3*$I$5)^2+A3^2*$I$3^2*$I$4^2))</f>
-        <v>9.9995100860046106E-4</v>
+        <f t="shared" ref="B3:B66" si="0">(A3*$I$2*SQRT((A3*$I$5)^2+$I$4^2))/(SQRT((1-A3^2*$I$3*$I$5)^2+A3^2*$I$3^2*$I$4^2))</f>
+        <v>1.1999991533672963E-4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" si="1">20*LOG10(B3)</f>
-        <v>-60.0004255443137</v>
+        <f t="shared" ref="C3:C66" si="1">20*LOG10(B3)</f>
+        <v>-78.41638120718153</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="2">DEGREES(ATAN2($I$4,A3*$I$5)+ATAN2(0,A3*$I$2)-ATAN2((1-A3^2*$I$3*$I$5),A3*$I$3*$I$4))</f>
-        <v>89.432790307347645</v>
+        <f t="shared" ref="D3:D66" si="2">DEGREES(ATAN2($I$4,A3*$I$5)+ATAN2(0,A3*$I$2)-ATAN2((1-A3^2*$I$3*$I$5),A3*$I$3*$I$4))</f>
+        <v>89.931932645950695</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
@@ -2252,21 +4030,22 @@
         <v>1.0000000000000001E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1000</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A67" si="3">A3*1.2</f>
+        <v>14.399999999999999</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>9.9513621601789847E-3</v>
+        <v>1.4399985370193685E-4</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>-40.042349363659994</v>
+        <v>-76.832758982605256</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>84.346135281796819</v>
+        <v>89.918319192043271</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
@@ -2276,21 +4055,22 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10000</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="3"/>
+        <v>17.279999999999998</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>7.1068664067738832E-2</v>
+        <v>1.7279974719711642E-4</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>-22.966436964955392</v>
+        <v>-75.249137944431595</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>45.285022631126395</v>
+        <v>89.901983059659315</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -2300,56 +4080,1469 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>100000</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="3"/>
+        <v>20.735999999999997</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>0.10049875621120889</v>
+        <v>2.0735956315703896E-4</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>-19.956786262173576</v>
+        <v>-73.665518614674511</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>5.7105931374996457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1000000</v>
+        <v>89.882379722061501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="3"/>
+        <v>24.883199999999995</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>0.10050124364777158</v>
+        <v>2.4883124513641288E-4</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>-19.956571281084209</v>
+        <v>-72.081901745030763</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>0.28791606655708729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89.858855753686314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>10000000</v>
+        <f t="shared" si="3"/>
+        <v>29.859839999999991</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.1000099019655892</v>
+        <v>2.9859709559833307E-4</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>-19.99913996877622</v>
+        <v>-70.498288417936664</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>5.6734111805461758E-4</v>
-      </c>
+        <v>89.830627055126413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="3"/>
+        <v>35.831807999999988</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>3.5831582600041824E-4</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>-68.914680192085868</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>89.796752726565174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="3"/>
+        <v>42.998169599999983</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>4.299778011048932E-4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>-67.331079311967059</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>89.756103721870176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="3"/>
+        <v>51.597803519999978</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>5.1597130486149233E-4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>-65.747489009581301</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>89.707325243824016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="3"/>
+        <v>61.917364223999968</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>6.191620123151794E-4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>-64.163913938880114</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>89.648791636231053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="3"/>
+        <v>74.300837068799964</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>7.4298827442703609E-4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>-62.580360801284272</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>89.578552285252002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="3"/>
+        <v>89.16100448255996</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>8.9157531910653896E-4</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-60.996839246280985</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>89.494266754232086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="3"/>
+        <v>106.99320537907195</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.0698720492905787E-3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>-59.413363167973429</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>89.393127037451436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="3"/>
+        <v>128.39184645488635</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.2838147806103286E-3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>-57.829952571468333</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>89.27176442348113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="3"/>
+        <v>154.07021574586361</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.5405230011613352E-3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>-56.246636259139819</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>89.126138005598094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="3"/>
+        <v>184.88425889503631</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.8485330306248866E-3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>-54.66345569608356</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>88.951401368140367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="3"/>
+        <v>221.86111067404357</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.2180762490548924E-3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>-53.080470570638816</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>88.741743428251453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="3"/>
+        <v>266.23333280885225</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.6614092410257636E-3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>-51.497766789664972</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>88.490198857921698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="3"/>
+        <v>319.47999937062269</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.1932035369315417E-3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>-49.91546796714411</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>88.188423025911959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="3"/>
+        <v>383.37599924474722</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3.8310022244795435E-3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>-48.333751916856791</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>87.826426125698489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="3"/>
+        <v>460.05119909369665</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>4.5957488285932957E-3</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>-46.752874296527651</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>87.392261355562454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="3"/>
+        <v>552.06143891243596</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>5.5123892627232914E-3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>-45.173202437815519</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>86.87166315533976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="3"/>
+        <v>662.47372669492313</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>6.6105382023941396E-3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>-43.595263612663402</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>86.247634387920584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="3"/>
+        <v>794.96847203390769</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>7.9251833662272488E-3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>-42.019813613070113</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>85.499987350280961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="3"/>
+        <v>953.9621664406892</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>9.4973691648010915E-3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>-40.447933610945341</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>84.604854868205095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="3"/>
+        <v>1144.7545997288271</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.1374746106556701E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>-38.881165767266673</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>83.534208076376828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="3"/>
+        <v>1373.7055196745926</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.3611781429495703E-2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>-37.321700663646276</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>82.255452274697305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="3"/>
+        <v>1648.4466236095111</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.6269283518052523E-2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>-35.772631450184448</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>80.731229074347084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="3"/>
+        <v>1978.1359483314131</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1.9412683252907324E-2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>-34.238288631345434</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>78.919640776932781</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="3"/>
+        <v>2373.7631379976956</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2.3108242509511628E-2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>-32.7246616680426</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>76.775237688541438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="3"/>
+        <v>2848.5157655972348</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2.7416082031325374E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>-31.239892182580235</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>74.251262973420964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="3"/>
+        <v>3418.2189187166819</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>3.2378823443725668E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>-29.794778726959343</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>71.303786607520777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="3"/>
+        <v>4101.8627024600182</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>3.8005129064653052E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>-28.403155765474754</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>67.898356394790994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="3"/>
+        <v>4922.2352429520215</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>4.424913818009317E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>-27.081903668712847</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>64.019414042406211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="3"/>
+        <v>5906.6822915424254</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>5.0990272464786025E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>-25.850253347770771</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>59.681665965178738</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="3"/>
+        <v>7088.0187498509104</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>5.8022500952555948E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>-24.728071113395128</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>54.940761894679795</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="3"/>
+        <v>8505.6224998210928</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>6.5064752300962869E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>-23.733084384345041</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>49.898660049192955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="3"/>
+        <v>10206.746999785311</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>7.1799506491589254E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>-22.877570816746232</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>44.698665056981909</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" si="3"/>
+        <v>12248.096399742373</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>7.7932613577237644E-2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>-22.165615177092594</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>39.50815483688627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="3"/>
+        <v>14697.715679690848</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>8.3251903597930749E-2</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>-21.59211654679314</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>34.492973531182564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="3"/>
+        <v>17637.258815629015</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>8.7659479165260873E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>-21.144022281290098</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>29.792376604719049</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="3"/>
+        <v>21164.710578754817</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>9.1167487256085825E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>-20.803200299829975</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>25.503071299968937</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="3"/>
+        <v>25397.652694505781</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>9.3867052629579784E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>-20.549736370243437</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>21.67561176138193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="3"/>
+        <v>30477.183233406937</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>9.5889236812908715E-2</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>-20.364602758587282</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>18.320633024336921</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="3"/>
+        <v>36572.619880088321</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>9.7372781653031162E-2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>-20.231248466094222</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>15.419806881544892</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="3"/>
+        <v>43887.143856105984</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>9.8444199539730798E-2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>-20.136197359354338</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>12.937082450704061</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="3"/>
+        <v>52664.572627327179</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>9.9208967172318765E-2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>-20.068981432430476</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>10.827800711271848</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" si="3"/>
+        <v>63197.487152792615</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>9.9750040261131309E-2</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>-20.021738407023054</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>9.0450339465032528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f t="shared" si="3"/>
+        <v>75836.984583351135</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>0.10013013012540177</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>-19.988704388825273</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>7.5434701119300112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f t="shared" si="3"/>
+        <v>91004.381500021365</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>0.10039534363633781</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>-19.965728588429425</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>6.2814847363737307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <f t="shared" si="3"/>
+        <v>109205.25780002563</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>0.10057888442701392</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>-19.949863713510197</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>5.2220216133390371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <f t="shared" si="3"/>
+        <v>131046.30936003075</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>0.1007042502373599</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>-19.939043991970468</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>4.3327612314543069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <f t="shared" si="3"/>
+        <v>157255.57123203689</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>0.10078776950875822</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>-19.931843317556879</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>3.5859053636114528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <f t="shared" si="3"/>
+        <v>188706.68547844427</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>0.10084051258295779</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>-19.927299108506777</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>2.9577875605846673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <f t="shared" si="3"/>
+        <v>226448.02257413312</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>0.10086968749379648</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>-19.924786493305206</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>2.4284375760596513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <f t="shared" si="3"/>
+        <v>271737.62708895974</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>0.10087965185955865</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>-19.923928504062999</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>1.9811750817506812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <f t="shared" si="3"/>
+        <v>326085.15250675165</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>0.10087267687620917</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>-19.924529081374839</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>1.6022728449194565</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <f t="shared" si="3"/>
+        <v>391302.18300810194</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>0.10084960176284864</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>-19.926516247990861</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>1.2806993509622882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <f t="shared" si="3"/>
+        <v>469562.61960972234</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>0.10081051206747646</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>-19.929883585019404</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>1.0079139293890367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <f t="shared" si="3"/>
+        <v>563475.14353166684</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>0.10075553512471554</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>-19.934621720989753</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>0.7776391133261199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <f t="shared" si="3"/>
+        <v>676170.1722380002</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>0.10068572939202922</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>-19.940641589023663</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>0.58549221030781784</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <f t="shared" si="3"/>
+        <v>811404.20668560022</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>0.10060384557206881</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>-19.947708361981761</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>0.42837172322484829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <f t="shared" si="3"/>
+        <v>973685.04802272026</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>0.10051456789936486</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>-19.95541979973428</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>0.3036213252184834</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <f t="shared" si="3"/>
+        <v>1168422.0576272642</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>0.10042392751859122</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>-19.963255952741331</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>0.20820507814285835</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <f t="shared" si="3"/>
+        <v>1402106.4691527169</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B78" si="4">(A67*$I$2*SQRT((A67*$I$5)^2+$I$4^2))/(SQRT((1-A67^2*$I$3*$I$5)^2+A67^2*$I$3^2*$I$4^2))</f>
+        <v>0.10033801407218362</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C78" si="5">20*LOG10(B67)</f>
+        <v>-19.970689978867618</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D78" si="6">DEGREES(ATAN2($I$4,A67*$I$5)+ATAN2(0,A67*$I$2)-ATAN2((1-A67^2*$I$3*$I$5),A67*$I$3*$I$4))</f>
+        <v>0.13824539834495631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <f t="shared" ref="A68:A128" si="7">A67*1.2</f>
+        <v>1682527.7629832602</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>0.10026159716908674</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="5"/>
+        <v>-19.977307626975531</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="6"/>
+        <v>8.9123946361590323E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <f t="shared" si="7"/>
+        <v>2019033.3155799122</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>0.10019732721115997</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="5"/>
+        <v>-19.982877264570352</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="6"/>
+        <v>5.6010744462608085E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <f t="shared" si="7"/>
+        <v>2422839.9786958946</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>0.1001457512063724</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="5"/>
+        <v>-19.987349428011107</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="6"/>
+        <v>3.447180397108876E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <f t="shared" si="7"/>
+        <v>2907407.9744350733</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="4"/>
+        <v>0.10010589167180702</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="5"/>
+        <v>-19.990807232579957</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="6"/>
+        <v>2.0869193912159384E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <f t="shared" si="7"/>
+        <v>3488889.5693220878</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
+        <v>0.10007597189986076</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="5"/>
+        <v>-19.993403669983621</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>1.247676379233814E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <f t="shared" si="7"/>
+        <v>4186667.4831865053</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
+        <v>0.10005400014139851</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="5"/>
+        <v>-19.995310873267343</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>7.3901925022168552E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <f t="shared" si="7"/>
+        <v>5024000.9798238063</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
+        <v>0.10003812314566703</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="5"/>
+        <v>-19.996689296672841</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>4.3477536236410548E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <f t="shared" si="7"/>
+        <v>6028801.1757885674</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
+        <v>0.10002678338421291</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="5"/>
+        <v>-19.997673936291317</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>2.545415724208135E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <f t="shared" si="7"/>
+        <v>7234561.4109462807</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
+        <v>0.10001875153257749</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="5"/>
+        <v>-19.998371415262401</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>1.4850735791495865E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <f t="shared" si="7"/>
+        <v>8681473.6931355372</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="4"/>
+        <v>0.1000130961958297</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="5"/>
+        <v>-19.99886255336294</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>8.6432030687500969E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <f t="shared" si="7"/>
+        <v>10417768.431762645</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="4"/>
+        <v>0.10000913075694502</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="5"/>
+        <v>-19.999206948733878</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>5.0217477974943221E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LaTech/BIOM_510_Bioinstrumentation/HW/5/Bode Plot.xlsx
+++ b/LaTech/BIOM_510_Bioinstrumentation/HW/5/Bode Plot.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunzi\Documents\Study\LaTech\BIOM_510_Bioinstrumentation\HW\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44332960-9BCF-4E8A-9DD2-5A95F9310BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFA691A-EA5C-40C2-93F6-B35DD3C4A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="16350" windowHeight="15585" xr2:uid="{0A82C310-CB32-46F5-8457-DBF612197A18}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{0A82C310-CB32-46F5-8457-DBF612197A18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>C_i</t>
   </si>
@@ -49,6 +47,15 @@
   </si>
   <si>
     <t>L_f</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <t>Rp</t>
   </si>
 </sst>
 </file>
@@ -96,9 +103,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1646,6 +1654,301 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.2831853071795862E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2831853071795866E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2831853071795868E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62831853071795862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2831853071795862</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.831853071795862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>628.31853071795865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-226.02060425622227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-206.02103418604824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-186.06381365110605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-169.03089986991944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-166.06381365110605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-166.02103418604824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-166.02060425622227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2B7A-45DD-95D5-BD4799FCC885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121805407"/>
+        <c:axId val="2121803007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2121805407"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121803007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2121803007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-150"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Magnitude</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121805407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2291,1000 +2594,45 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>0.1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.2623756552633783</v>
-          </cell>
-          <cell r="D2">
-            <v>-7.0122485347935859E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.12</v>
-          </cell>
-          <cell r="C3">
-            <v>0.2623210025863198</v>
-          </cell>
-          <cell r="D3">
-            <v>-8.4141571956447989E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.14399999999999999</v>
-          </cell>
-          <cell r="C4">
-            <v>0.26224236597317868</v>
-          </cell>
-          <cell r="D4">
-            <v>-0.10096054304519639</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.17279999999999998</v>
-          </cell>
-          <cell r="C5">
-            <v>0.26212926017426597</v>
-          </cell>
-          <cell r="D5">
-            <v>-0.12113652127239102</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.20735999999999996</v>
-          </cell>
-          <cell r="C6">
-            <v>0.26196665866997898</v>
-          </cell>
-          <cell r="D6">
-            <v>-0.14533598909179912</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.24883199999999994</v>
-          </cell>
-          <cell r="C7">
-            <v>0.26173307223345571</v>
-          </cell>
-          <cell r="D7">
-            <v>-0.17435517701669204</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.29859839999999993</v>
-          </cell>
-          <cell r="C8">
-            <v>0.2613978627893227</v>
-          </cell>
-          <cell r="D8">
-            <v>-0.2091434779771088</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.35831807999999993</v>
-          </cell>
-          <cell r="C9">
-            <v>0.260917539576143</v>
-          </cell>
-          <cell r="D9">
-            <v>-0.25082976908125765</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.42998169599999991</v>
-          </cell>
-          <cell r="C10">
-            <v>0.26023075678818064</v>
-          </cell>
-          <cell r="D10">
-            <v>-0.3007510310465642</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.51597803519999985</v>
-          </cell>
-          <cell r="C11">
-            <v>0.25925176988588466</v>
-          </cell>
-          <cell r="D11">
-            <v>-0.36048180934609031</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0.61917364223999982</v>
-          </cell>
-          <cell r="C12">
-            <v>0.25786230354688866</v>
-          </cell>
-          <cell r="D12">
-            <v>-0.43186171185568961</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0.74300837068799974</v>
-          </cell>
-          <cell r="C13">
-            <v>0.25590230234477929</v>
-          </cell>
-          <cell r="D13">
-            <v>-0.51701618429920482</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0.89161004482559969</v>
-          </cell>
-          <cell r="C14">
-            <v>0.25316112653802997</v>
-          </cell>
-          <cell r="D14">
-            <v>-0.61836338427051873</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>1.0699320537907195</v>
-          </cell>
-          <cell r="C15">
-            <v>0.24937269725749545</v>
-          </cell>
-          <cell r="D15">
-            <v>-0.73859787764636087</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>1.2839184645488635</v>
-          </cell>
-          <cell r="C16">
-            <v>0.24422092383976657</v>
-          </cell>
-          <cell r="D16">
-            <v>-0.88064223408760378</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>1.5407021574586361</v>
-          </cell>
-          <cell r="C17">
-            <v>0.23736460022544664</v>
-          </cell>
-          <cell r="D17">
-            <v>-1.0475644922902472</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>1.8488425889503632</v>
-          </cell>
-          <cell r="C18">
-            <v>0.22849111547829601</v>
-          </cell>
-          <cell r="D18">
-            <v>-1.2424782504442606</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>2.2186111067404357</v>
-          </cell>
-          <cell r="C19">
-            <v>0.21740104706926139</v>
-          </cell>
-          <cell r="D19">
-            <v>-1.4684749287980972</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>2.6623333280885229</v>
-          </cell>
-          <cell r="C20">
-            <v>0.20410753872694018</v>
-          </cell>
-          <cell r="D20">
-            <v>-1.7286741413008939</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>3.1947999937062272</v>
-          </cell>
-          <cell r="C21">
-            <v>0.18891114371553566</v>
-          </cell>
-          <cell r="D21">
-            <v>-2.0264888047478746</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>3.8337599924474723</v>
-          </cell>
-          <cell r="C22">
-            <v>0.17240249870081351</v>
-          </cell>
-          <cell r="D22">
-            <v>-2.3661539150718545</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>4.6005119909369663</v>
-          </cell>
-          <cell r="C23">
-            <v>0.15537152272009222</v>
-          </cell>
-          <cell r="D23">
-            <v>-2.7534678918441626</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>5.5206143891243595</v>
-          </cell>
-          <cell r="C24">
-            <v>0.13865313505417762</v>
-          </cell>
-          <cell r="D24">
-            <v>-3.1966096742521435</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>6.6247372669492313</v>
-          </cell>
-          <cell r="C25">
-            <v>0.12297450641485037</v>
-          </cell>
-          <cell r="D25">
-            <v>-3.7068953893119487</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>7.9496847203390768</v>
-          </cell>
-          <cell r="C26">
-            <v>0.10885839445266142</v>
-          </cell>
-          <cell r="D26">
-            <v>-4.2994183980744136</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>9.5396216644068925</v>
-          </cell>
-          <cell r="C27">
-            <v>9.6596838760691403E-2</v>
-          </cell>
-          <cell r="D27">
-            <v>-4.9935930907642199</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>11.447545997288271</v>
-          </cell>
-          <cell r="C28">
-            <v>8.6275977524307032E-2</v>
-          </cell>
-          <cell r="D28">
-            <v>-5.8136275293508053</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>13.737055196745926</v>
-          </cell>
-          <cell r="C29">
-            <v>7.7823637843934992E-2</v>
-          </cell>
-          <cell r="D29">
-            <v>-6.788889422494611</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>16.484466236095109</v>
-          </cell>
-          <cell r="C30">
-            <v>7.1059447414159316E-2</v>
-          </cell>
-          <cell r="D30">
-            <v>-7.9540643531730169</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>19.78135948331413</v>
-          </cell>
-          <cell r="C31">
-            <v>6.5738503808701471E-2</v>
-          </cell>
-          <cell r="D31">
-            <v>-9.348985743576451</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>23.737631379976957</v>
-          </cell>
-          <cell r="C32">
-            <v>6.1586373835122811E-2</v>
-          </cell>
-          <cell r="D32">
-            <v>-11.018026728253014</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>28.485157655972348</v>
-          </cell>
-          <cell r="C33">
-            <v>5.8325129065487563E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>-13.008899915302559</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>34.182189187166813</v>
-          </cell>
-          <cell r="C34">
-            <v>5.5690346370668657E-2</v>
-          </cell>
-          <cell r="D34">
-            <v>-15.37054258412337</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>41.018627024600171</v>
-          </cell>
-          <cell r="C35">
-            <v>5.343988926130952E-2</v>
-          </cell>
-          <cell r="D35">
-            <v>-18.149519074633005</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>49.222352429520207</v>
-          </cell>
-          <cell r="C36">
-            <v>5.1357017267634732E-2</v>
-          </cell>
-          <cell r="D36">
-            <v>-21.38422653934072</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>59.066822915424247</v>
-          </cell>
-          <cell r="C37">
-            <v>4.9251899053332271E-2</v>
-          </cell>
-          <cell r="D37">
-            <v>-25.096405186281114</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>70.880187498509088</v>
-          </cell>
-          <cell r="C38">
-            <v>4.6965938434218382E-2</v>
-          </cell>
-          <cell r="D38">
-            <v>-29.280322411741885</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>85.056224998210908</v>
-          </cell>
-          <cell r="C39">
-            <v>4.4381755129066953E-2</v>
-          </cell>
-          <cell r="D39">
-            <v>-33.891685299280233</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>102.06746999785308</v>
-          </cell>
-          <cell r="C40">
-            <v>4.1437760757191452E-2</v>
-          </cell>
-          <cell r="D40">
-            <v>-38.840429227733637</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>122.48096399742369</v>
-          </cell>
-          <cell r="C41">
-            <v>3.8140919444212586E-2</v>
-          </cell>
-          <cell r="D41">
-            <v>-43.992576575796058</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>146.97715679690842</v>
-          </cell>
-          <cell r="C42">
-            <v>3.4568024490047429E-2</v>
-          </cell>
-          <cell r="D42">
-            <v>-49.184352445415648</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>176.37258815629011</v>
-          </cell>
-          <cell r="C43">
-            <v>3.0849167046576493E-2</v>
-          </cell>
-          <cell r="D43">
-            <v>-54.246306148774586</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>211.64710578754813</v>
-          </cell>
-          <cell r="C44">
-            <v>2.7136816591681642E-2</v>
-          </cell>
-          <cell r="D44">
-            <v>-59.029487990849361</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>253.97652694505774</v>
-          </cell>
-          <cell r="C45">
-            <v>2.3572627292898576E-2</v>
-          </cell>
-          <cell r="D45">
-            <v>-63.424447743888145</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>304.7718323340693</v>
-          </cell>
-          <cell r="C46">
-            <v>2.0264233385336131E-2</v>
-          </cell>
-          <cell r="D46">
-            <v>-67.368113007240979</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>365.72619880088314</v>
-          </cell>
-          <cell r="C47">
-            <v>1.7276903198057424E-2</v>
-          </cell>
-          <cell r="D47">
-            <v>-70.83973059896779</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>438.87143856105973</v>
-          </cell>
-          <cell r="C48">
-            <v>1.4637194057421711E-2</v>
-          </cell>
-          <cell r="D48">
-            <v>-73.850666852975422</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>526.64572627327163</v>
-          </cell>
-          <cell r="C49">
-            <v>1.2342581848671845E-2</v>
-          </cell>
-          <cell r="D49">
-            <v>-76.432909475322035</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>631.97487152792598</v>
-          </cell>
-          <cell r="C50">
-            <v>1.0371986054995263E-2</v>
-          </cell>
-          <cell r="D50">
-            <v>-78.629248798229497</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>758.36984583351114</v>
-          </cell>
-          <cell r="C51">
-            <v>8.6944872765598574E-3</v>
-          </cell>
-          <cell r="D51">
-            <v>-80.486188802621371</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>910.04381500021339</v>
-          </cell>
-          <cell r="C52">
-            <v>7.2754747598230887E-3</v>
-          </cell>
-          <cell r="D52">
-            <v>-82.049453386350947</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>1092.0525780002561</v>
-          </cell>
-          <cell r="C53">
-            <v>6.0804850492168052E-3</v>
-          </cell>
-          <cell r="D53">
-            <v>-83.36148685804784</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>1310.4630936003073</v>
-          </cell>
-          <cell r="C54">
-            <v>5.0773268810920084E-3</v>
-          </cell>
-          <cell r="D54">
-            <v>-84.46030374294709</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>1572.5557123203687</v>
-          </cell>
-          <cell r="C55">
-            <v>4.2370721797691966E-3</v>
-          </cell>
-          <cell r="D55">
-            <v>-85.379168719877512</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>1887.0668547844423</v>
-          </cell>
-          <cell r="C56">
-            <v>3.5343589427742541E-3</v>
-          </cell>
-          <cell r="D56">
-            <v>-86.146743248854293</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>2264.4802257413307</v>
-          </cell>
-          <cell r="C57">
-            <v>2.947309705811061E-3</v>
-          </cell>
-          <cell r="D57">
-            <v>-86.787465889631605</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>2717.376270889597</v>
-          </cell>
-          <cell r="C58">
-            <v>2.4572570176123187E-3</v>
-          </cell>
-          <cell r="D58">
-            <v>-87.322026600529398</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>3260.8515250675164</v>
-          </cell>
-          <cell r="C59">
-            <v>2.0483895469092586E-3</v>
-          </cell>
-          <cell r="D59">
-            <v>-87.767856376811721</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>3913.0218300810193</v>
-          </cell>
-          <cell r="C60">
-            <v>1.7073824601035407E-3</v>
-          </cell>
-          <cell r="D60">
-            <v>-88.139591272548316</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>4695.6261960972233</v>
-          </cell>
-          <cell r="C61">
-            <v>1.4230452234415345E-3</v>
-          </cell>
-          <cell r="D61">
-            <v>-88.449492045266737</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>5634.751435316668</v>
-          </cell>
-          <cell r="C62">
-            <v>1.1860021539225551E-3</v>
-          </cell>
-          <cell r="D62">
-            <v>-88.707813160676551</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>6761.7017223800012</v>
-          </cell>
-          <cell r="C63">
-            <v>9.8841103799052242E-4</v>
-          </cell>
-          <cell r="D63">
-            <v>-88.923121557991607</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>8114.0420668560009</v>
-          </cell>
-          <cell r="C64">
-            <v>8.2371980297994295E-4</v>
-          </cell>
-          <cell r="D64">
-            <v>-89.102568841846164</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>9736.8504802272</v>
-          </cell>
-          <cell r="C65">
-            <v>6.8645859974396752E-4</v>
-          </cell>
-          <cell r="D65">
-            <v>-89.252121916784617</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>11684.220576272639</v>
-          </cell>
-          <cell r="C66">
-            <v>5.7206355131288699E-4</v>
-          </cell>
-          <cell r="D66">
-            <v>-89.37675739234912</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>14021.064691527166</v>
-          </cell>
-          <cell r="C67">
-            <v>4.7672814413514441E-4</v>
-          </cell>
-          <cell r="D67">
-            <v>-89.480624868499547</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>16825.277629832599</v>
-          </cell>
-          <cell r="C68">
-            <v>3.9727838309628721E-4</v>
-          </cell>
-          <cell r="D68">
-            <v>-89.567183749198989</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>20190.333155799119</v>
-          </cell>
-          <cell r="C69">
-            <v>3.3106817214561369E-4</v>
-          </cell>
-          <cell r="D69">
-            <v>-89.639317683759245</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>24228.39978695894</v>
-          </cell>
-          <cell r="C70">
-            <v>2.7589179447462113E-4</v>
-          </cell>
-          <cell r="D70">
-            <v>-89.699430183643457</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>29074.079744350729</v>
-          </cell>
-          <cell r="C71">
-            <v>2.2991078419503465E-4</v>
-          </cell>
-          <cell r="D71">
-            <v>-89.749524447304566</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>34888.895693220875</v>
-          </cell>
-          <cell r="C72">
-            <v>1.9159287310030706E-4</v>
-          </cell>
-          <cell r="D72">
-            <v>-89.791269964340785</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>41866.67483186505</v>
-          </cell>
-          <cell r="C73">
-            <v>1.5966104757312422E-4</v>
-          </cell>
-          <cell r="D73">
-            <v>-89.826058067265791</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>50240.009798238061</v>
-          </cell>
-          <cell r="C74">
-            <v>1.330510581576951E-4</v>
-          </cell>
-          <cell r="D74">
-            <v>-89.855048252610089</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>60288.011757885673</v>
-          </cell>
-          <cell r="C75">
-            <v>1.108759889628708E-4</v>
-          </cell>
-          <cell r="D75">
-            <v>-89.879206798020846</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>72345.614109462811</v>
-          </cell>
-          <cell r="C76">
-            <v>9.2396719485876247E-5</v>
-          </cell>
-          <cell r="D76">
-            <v>-89.8993389525438</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>86814.736931355365</v>
-          </cell>
-          <cell r="C77">
-            <v>7.6997302127654514E-5</v>
-          </cell>
-          <cell r="D77">
-            <v>-89.916115767277802</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>104177.68431762644</v>
-          </cell>
-          <cell r="C78">
-            <v>6.4164439209079971E-5</v>
-          </cell>
-          <cell r="D78">
-            <v>-89.930096457390832</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>125013.22118115172</v>
-          </cell>
-          <cell r="C79">
-            <v>5.347037802688684E-5</v>
-          </cell>
-          <cell r="D79">
-            <v>-89.94174703894798</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>150015.86541738207</v>
-          </cell>
-          <cell r="C80">
-            <v>4.4558655311368201E-5</v>
-          </cell>
-          <cell r="D80">
-            <v>-89.951455860652402</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>180019.03850085847</v>
-          </cell>
-          <cell r="C81">
-            <v>3.713221678472349E-5</v>
-          </cell>
-          <cell r="D81">
-            <v>-89.95954654757054</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>216022.84620103016</v>
-          </cell>
-          <cell r="C82">
-            <v>3.0943516316697315E-5</v>
-          </cell>
-          <cell r="D82">
-            <v>-89.966288787921556</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>259227.41544123617</v>
-          </cell>
-          <cell r="C83">
-            <v>2.578626494529649E-5</v>
-          </cell>
-          <cell r="D83">
-            <v>-89.971907322272273</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>311072.89852948341</v>
-          </cell>
-          <cell r="C84">
-            <v>2.1488554901201294E-5</v>
-          </cell>
-          <cell r="D84">
-            <v>-89.976589434650691</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>373287.47823538008</v>
-          </cell>
-          <cell r="C85">
-            <v>1.7907129535793306E-5</v>
-          </cell>
-          <cell r="D85">
-            <v>-89.980491195208785</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>447944.97388245608</v>
-          </cell>
-          <cell r="C86">
-            <v>1.4922608207755373E-5</v>
-          </cell>
-          <cell r="D86">
-            <v>-89.983742662481006</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>537533.96865894727</v>
-          </cell>
-          <cell r="C87">
-            <v>1.243550699098883E-5</v>
-          </cell>
-          <cell r="D87">
-            <v>-89.986452218622517</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>645040.76239073672</v>
-          </cell>
-          <cell r="C88">
-            <v>1.0362922579986462E-5</v>
-          </cell>
-          <cell r="D88">
-            <v>-89.988710182120798</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>774048.91486888402</v>
-          </cell>
-          <cell r="C89">
-            <v>8.6357688672895135E-6</v>
-          </cell>
-          <cell r="D89">
-            <v>-89.990591818396595</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>928858.69784266083</v>
-          </cell>
-          <cell r="C90">
-            <v>7.1964740853767505E-6</v>
-          </cell>
-          <cell r="D90">
-            <v>-89.992159848642174</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEF6AEB-C9C4-7334-2BE4-CA816656FCE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3966,12 +3314,204 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Sheets">
+    <a:dk1>
+      <a:srgbClr val="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="000000"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4285F4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EA4335"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="FBBC04"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="34A853"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="FF6D01"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="46BDC6"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="1155CC"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="1155CC"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Sheets">
+    <a:majorFont>
+      <a:latin typeface="Arial"/>
+      <a:ea typeface="Arial"/>
+      <a:cs typeface="Arial"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Arial"/>
+      <a:ea typeface="Arial"/>
+      <a:cs typeface="Arial"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383CBB16-8A7F-454B-A40C-7BD864CDB9E3}">
   <dimension ref="A2:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5198,7 +4738,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <f t="shared" ref="A68:A128" si="7">A67*1.2</f>
+        <f t="shared" ref="A68:A78" si="7">A67*1.2</f>
         <v>1682527.7629832602</v>
       </c>
       <c r="B68">
@@ -5543,6 +5083,178 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA39FF03-2981-4BB5-B58D-2CD7EF4EEE9B}">
+  <dimension ref="A2:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1E-4</v>
+      </c>
+      <c r="B2" s="2">
+        <f>($G$5*$G$7*$G$6*A2)/(SQRT($G$7^2*$G$6^2*A2^2+1))</f>
+        <v>4.9999975000018756E-12</v>
+      </c>
+      <c r="D2">
+        <f>A2*2*PI()</f>
+        <v>6.2831853071795862E-4</v>
+      </c>
+      <c r="E2">
+        <f>20*LOG10(B2)</f>
+        <v>-226.02060425622227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2*10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B8" si="0">($G$5*$G$7*$G$6*A3)/(SQRT($G$7^2*$G$6^2*A3^2+1))</f>
+        <v>4.9997500187484389E-11</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="1">A3*2*PI()</f>
+        <v>6.2831853071795866E-3</v>
+      </c>
+      <c r="E3">
+        <f>20*LOG10(B3)</f>
+        <v>-206.02103418604824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A11" si="2">A3*10</f>
+        <v>0.01</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9751859510499466E-10</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>6.2831853071795868E-2</v>
+      </c>
+      <c r="E4">
+        <f>20*LOG10(B4)</f>
+        <v>-186.06381365110605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.535533905932738E-9</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="E5">
+        <f>20*LOG10(B5)</f>
+        <v>-169.03089986991944</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f>0.000000005</f>
+        <v>5.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9751859510499457E-9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="E6">
+        <f>20*LOG10(B6)</f>
+        <v>-166.06381365110605</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.999750018748438E-9</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>62.831853071795862</v>
+      </c>
+      <c r="E7">
+        <f>20*LOG10(B7)</f>
+        <v>-166.02103418604824</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9999975000018754E-9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="E8">
+        <f>20*LOG10(B8)</f>
+        <v>-166.02060425622227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
